--- a/uploads/leo/leo-anotherTrial.xlsx
+++ b/uploads/leo/leo-anotherTrial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4AA22A-79E5-497E-B521-113FCC22CB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDD643F-88C0-49FC-8A71-562AF8AACB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C98EC670-D822-462E-9B80-A69CE7E2EDBC}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="404">
   <si>
     <t>genericName</t>
   </si>
@@ -1224,15 +1224,29 @@
   </si>
   <si>
     <t>850mg</t>
+  </si>
+  <si>
+    <t>2027-3-1</t>
+  </si>
+  <si>
+    <t>2024-4-1</t>
+  </si>
+  <si>
+    <t>2024-5-1</t>
+  </si>
+  <si>
+    <t>2024-5-3</t>
+  </si>
+  <si>
+    <t>2016-9-9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="171" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="172" formatCode="yyyy\-mm\-dd;@"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1278,8 +1292,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1597,7 +1611,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1658,8 +1672,8 @@
       <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="5">
-        <v>46633</v>
+      <c r="H2" s="5" t="s">
+        <v>399</v>
       </c>
       <c r="I2" s="2">
         <v>23.5</v>
@@ -1687,8 +1701,8 @@
       <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="5">
-        <v>46971</v>
+      <c r="H3" s="5" t="s">
+        <v>400</v>
       </c>
       <c r="I3" s="2">
         <v>20</v>
@@ -1716,8 +1730,8 @@
       <c r="G4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="5">
-        <v>37559</v>
+      <c r="H4" s="5" t="s">
+        <v>401</v>
       </c>
       <c r="I4" s="2">
         <v>89</v>
@@ -1745,8 +1759,8 @@
       <c r="G5" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="5">
-        <v>46903</v>
+      <c r="H5" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="I5" s="2">
         <v>80.900000000000006</v>
@@ -1774,8 +1788,8 @@
       <c r="G6" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="5">
-        <v>47302</v>
+      <c r="H6" s="5" t="s">
+        <v>403</v>
       </c>
       <c r="I6" s="2">
         <v>90</v>
